--- a/Solina/Production/Input/GHI_2024-02-24.xlsx
+++ b/Solina/Production/Input/GHI_2024-02-24.xlsx
@@ -59,10 +59,10 @@
     <t>+02:00</t>
   </si>
   <si>
-    <t>2024-02-24T07:14:21</t>
-  </si>
-  <si>
-    <t>2024-02-24T18:04:12</t>
+    <t>2024-02-24T07:11:21</t>
+  </si>
+  <si>
+    <t>2024-02-24T17:58:05</t>
   </si>
   <si>
     <t>hour</t>
@@ -469,10 +469,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>3629.75</v>
+        <v>3481.73</v>
       </c>
       <c r="H2">
-        <v>6932.59</v>
+        <v>6806.91</v>
       </c>
       <c r="I2">
-        <v>823.9299999999999</v>
+        <v>805.79</v>
       </c>
       <c r="J2">
-        <v>1008.41</v>
+        <v>957.35</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1008.41</v>
+        <v>957.35</v>
       </c>
     </row>
   </sheetData>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B2">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B3">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B4">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B5">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B6">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B7">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B8">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B9">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -869,30 +869,30 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>21.84</v>
+        <v>24.99</v>
       </c>
       <c r="I9">
-        <v>134.79</v>
+        <v>151.52</v>
       </c>
       <c r="J9">
-        <v>17.9</v>
+        <v>19.69</v>
       </c>
       <c r="K9">
-        <v>6.31</v>
+        <v>12.03</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.31</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B10">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -910,30 +910,30 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>153.97</v>
+        <v>156.62</v>
       </c>
       <c r="I10">
-        <v>515.33</v>
+        <v>519.91</v>
       </c>
       <c r="J10">
-        <v>57.75</v>
+        <v>58.26</v>
       </c>
       <c r="K10">
-        <v>47.6</v>
+        <v>62.55</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>47.6</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B11">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -951,30 +951,30 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>308.06</v>
+        <v>305.41</v>
       </c>
       <c r="I11">
-        <v>685.3200000000001</v>
+        <v>683.35</v>
       </c>
       <c r="J11">
-        <v>79</v>
+        <v>78.73</v>
       </c>
       <c r="K11">
-        <v>98.43000000000001</v>
+        <v>91.11</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>98.43000000000001</v>
+        <v>91.11</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B12">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -992,30 +992,30 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>437.95</v>
+        <v>429.28</v>
       </c>
       <c r="I12">
-        <v>771.16</v>
+        <v>766.39</v>
       </c>
       <c r="J12">
-        <v>91.79000000000001</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="K12">
-        <v>128.22</v>
+        <v>120.44</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>128.22</v>
+        <v>120.44</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B13">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1033,30 +1033,30 @@
         <v>11</v>
       </c>
       <c r="H13">
-        <v>525.9299999999999</v>
+        <v>511.44</v>
       </c>
       <c r="I13">
-        <v>815.17</v>
+        <v>808.53</v>
       </c>
       <c r="J13">
-        <v>99.04000000000001</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="K13">
-        <v>149.73</v>
+        <v>138.96</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>149.73</v>
+        <v>138.96</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B14">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1074,30 +1074,30 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>562.17</v>
+        <v>542.6900000000001</v>
       </c>
       <c r="I14">
-        <v>831.05</v>
+        <v>822.6900000000001</v>
       </c>
       <c r="J14">
-        <v>101.78</v>
+        <v>100.34</v>
       </c>
       <c r="K14">
-        <v>155.58</v>
+        <v>144.51</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>155.58</v>
+        <v>144.51</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B15">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -1115,30 +1115,30 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>542.88</v>
+        <v>519.78</v>
       </c>
       <c r="I15">
-        <v>822.79</v>
+        <v>812.4400000000001</v>
       </c>
       <c r="J15">
-        <v>100.33</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="K15">
-        <v>147.55</v>
+        <v>136.69</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>147.55</v>
+        <v>136.69</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B16">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1156,30 +1156,30 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>470.07</v>
+        <v>445.09</v>
       </c>
       <c r="I16">
-        <v>788.33</v>
+        <v>775.2</v>
       </c>
       <c r="J16">
-        <v>94.52</v>
+        <v>92.42</v>
       </c>
       <c r="K16">
-        <v>123.26</v>
+        <v>114.44</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>123.26</v>
+        <v>114.44</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B17">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -1197,30 +1197,30 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>351.66</v>
+        <v>326.88</v>
       </c>
       <c r="I17">
-        <v>717.87</v>
+        <v>700.09</v>
       </c>
       <c r="J17">
-        <v>83.62</v>
+        <v>81.06</v>
       </c>
       <c r="K17">
-        <v>87.91</v>
+        <v>81.72</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>87.91</v>
+        <v>81.72</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B18">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -1238,30 +1238,30 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>202.49</v>
+        <v>180.47</v>
       </c>
       <c r="I18">
-        <v>582.35</v>
+        <v>554.46</v>
       </c>
       <c r="J18">
-        <v>65.54000000000001</v>
+        <v>62.22</v>
       </c>
       <c r="K18">
-        <v>50.62</v>
+        <v>45.12</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>50.62</v>
+        <v>45.12</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B19">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -1279,30 +1279,30 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>52.73</v>
+        <v>39.08</v>
       </c>
       <c r="I19">
-        <v>268.42</v>
+        <v>212.33</v>
       </c>
       <c r="J19">
-        <v>32.65</v>
+        <v>25.53</v>
       </c>
       <c r="K19">
-        <v>13.18</v>
+        <v>9.77</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.18</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B20">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B21">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B22">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B23">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B24">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>46.073272</v>
+        <v>47.2229</v>
       </c>
       <c r="B25">
-        <v>23.580489</v>
+        <v>24.7244</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
